--- a/Footprints.xlsx
+++ b/Footprints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masonmann/Documents/KiCad/Modular Synth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE050DC-9E8A-2849-B477-D05698A4E89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137F5948-9C2C-5C45-B8C5-261DBB97F7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{ADDB1102-6A63-B143-B3DF-12C04A3FBF05}"/>
+    <workbookView xWindow="2200" yWindow="1600" windowWidth="28040" windowHeight="17440" xr2:uid="{ADDB1102-6A63-B143-B3DF-12C04A3FBF05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -635,7 +635,7 @@
   <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D32"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Footprints.xlsx
+++ b/Footprints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masonmann/Documents/KiCad/Modular Synth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137F5948-9C2C-5C45-B8C5-261DBB97F7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D201FAE-1C8E-964B-AFE4-022F0309BAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1600" windowWidth="28040" windowHeight="17440" xr2:uid="{ADDB1102-6A63-B143-B3DF-12C04A3FBF05}"/>
+    <workbookView xWindow="-1120" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{ADDB1102-6A63-B143-B3DF-12C04A3FBF05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Resistors</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>TO-220-3_Vertical</t>
+  </si>
+  <si>
+    <t>5-Pin JST XH</t>
+  </si>
+  <si>
+    <t>JST_XH_B5B-XH-A_1x05_P2.50mm_Vertical</t>
   </si>
 </sst>
 </file>
@@ -635,11 +641,12 @@
   <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="70" customWidth="1"/>
     <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.1640625" bestFit="1" customWidth="1"/>
@@ -841,8 +848,12 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="10"/>
       <c r="G16" s="14"/>
